--- a/virtual-coin/doc/表结构.xlsx
+++ b/virtual-coin/doc/表结构.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="172">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交易状态，1-交易中，2-已成交，3-已撤销，4-已失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>trans_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,6 +594,114 @@
   </si>
   <si>
     <t>acct_modify_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_trans_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托类型，1-买入，2-卖出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrust_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrust_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrust_unit_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrust_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrust_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrust_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrust_sts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrust_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrust_comp_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已成交金额，每交易一笔后更新此数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托状态，1-交易中，2-已撤销，3-已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrust_last_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后交易时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrust_money_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币ID，做预留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_money_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_entrust_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托ID，无则为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易状态，1-交易中，2-已成交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_entrust_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1037,7 +1141,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1049,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1060,6 +1164,8 @@
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="57.125" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -1067,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1080,7 +1186,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -1152,26 +1258,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -1179,7 +1285,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -1216,26 +1322,26 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -1340,11 +1446,13 @@
       <c r="A41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>58</v>
@@ -1352,292 +1460,442 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
+      <c r="B67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="1" t="s">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="1" t="s">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="1" t="s">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>132</v>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
